--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,40 +529,40 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7220516901901884</v>
+        <v>0.3765162687486398</v>
       </c>
       <c r="F2" t="n">
-        <v>1.513596753942686</v>
+        <v>0.9639882773081311</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173937054736352</v>
+        <v>-1.013814236462982</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3883995974293081</v>
+        <v>0.09657739433551644</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.74339763834191</v>
+        <v>-46.79477914110888</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7479191797248467</v>
+        <v>0.4919088533166652</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8246053591032552</v>
+        <v>0.6509344494719037</v>
       </c>
       <c r="L2" t="n">
-        <v>1.114299775633116</v>
+        <v>0.8164183691988339</v>
       </c>
       <c r="M2" t="n">
-        <v>1.022147983894899</v>
+        <v>0.5075457154213229</v>
       </c>
       <c r="N2" t="n">
-        <v>30.33333333333333</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -570,7 +570,7 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -579,40 +579,40 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.03147664152628</v>
+        <v>0.5086681684336458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.784261297407634</v>
+        <v>1.17898103882712</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21206678417559</v>
+        <v>-0.9137877716889117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2615074490698059</v>
+        <v>-0.0854077922755702</v>
       </c>
       <c r="I3" t="n">
-        <v>-41.85105988060038</v>
+        <v>-41.88092312603934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9916761392873781</v>
+        <v>0.4784796035330214</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9305249643883572</v>
+        <v>0.7201195506605829</v>
       </c>
       <c r="L3" t="n">
-        <v>1.362859703301385</v>
+        <v>0.865449793645824</v>
       </c>
       <c r="M3" t="n">
-        <v>1.151371830223644</v>
+        <v>0.7907656552231628</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="O3" t="n">
         <v>88</v>
       </c>
       <c r="P3" t="n">
-        <v>43.66666666666666</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +620,7 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -629,40 +629,40 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253230564815246</v>
+        <v>0.5748429471300222</v>
       </c>
       <c r="F4" t="n">
-        <v>2.216903761834084</v>
+        <v>1.096453238970163</v>
       </c>
       <c r="G4" t="n">
-        <v>1.233956431963956</v>
+        <v>-1.016969932951137</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6151799010731338</v>
+        <v>0.08450418417028989</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.2366779714155</v>
+        <v>-36.38893211542419</v>
       </c>
       <c r="J4" t="n">
-        <v>1.010571844668574</v>
+        <v>0.4758653344771313</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9070572986661146</v>
+        <v>0.7114782660826808</v>
       </c>
       <c r="L4" t="n">
-        <v>1.358096633326664</v>
+        <v>0.8561331086027687</v>
       </c>
       <c r="M4" t="n">
-        <v>1.751193981396313</v>
+        <v>0.6846166894945803</v>
       </c>
       <c r="N4" t="n">
-        <v>25.66666666666667</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
         <v>88</v>
       </c>
       <c r="P4" t="n">
-        <v>34.66666666666666</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -670,7 +670,7 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -679,40 +679,40 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.035512212843154</v>
+        <v>0.7342192908639088</v>
       </c>
       <c r="F5" t="n">
-        <v>1.525892454049047</v>
+        <v>1.19593690661032</v>
       </c>
       <c r="G5" t="n">
-        <v>1.563884107927644</v>
+        <v>-0.9901820971652455</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5071875201666293</v>
+        <v>0.04845666909595062</v>
       </c>
       <c r="I5" t="n">
-        <v>-31.92853080772051</v>
+        <v>-31.27160618159386</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6052537311206179</v>
+        <v>0.4533179042364157</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7974105589566394</v>
+        <v>0.5893865149518142</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001211331305404</v>
+        <v>0.7438975518128919</v>
       </c>
       <c r="M5" t="n">
-        <v>1.151303556712458</v>
+        <v>0.9336687970587217</v>
       </c>
       <c r="N5" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
         <v>88</v>
       </c>
       <c r="P5" t="n">
-        <v>44.66666666666666</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -729,40 +729,40 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.010030220353381</v>
+        <v>0.6033360981650971</v>
       </c>
       <c r="F6" t="n">
-        <v>1.323848133700636</v>
+        <v>0.9539236378180739</v>
       </c>
       <c r="G6" t="n">
-        <v>1.561387178253066</v>
+        <v>-0.7410351506481637</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6504043456489134</v>
+        <v>-0.1108324378324331</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.08738410416697</v>
+        <v>-26.85332796719212</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7218655319382158</v>
+        <v>0.4373260523508342</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7112344470987625</v>
+        <v>0.5245789168408884</v>
       </c>
       <c r="L6" t="n">
-        <v>1.013416679248315</v>
+        <v>0.6835008760068301</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8512765260195619</v>
+        <v>0.6651799696263085</v>
       </c>
       <c r="N6" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O6" t="n">
         <v>88</v>
       </c>
       <c r="P6" t="n">
-        <v>71.66666666666667</v>
+        <v>34.33333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -770,7 +770,7 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -779,40 +779,40 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6871997042978734</v>
+        <v>0.5711550977826142</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9506052054705832</v>
+        <v>0.9031485293127789</v>
       </c>
       <c r="G7" t="n">
-        <v>1.715135466807699</v>
+        <v>-0.6526817889804116</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9467231901803833</v>
+        <v>-0.1378324735330617</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.09195805007079</v>
+        <v>-21.40577978257373</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4224027973904576</v>
+        <v>0.2912098791552615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6011422191716455</v>
+        <v>0.5061207523445301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7348441263559806</v>
+        <v>0.5839639770252883</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6029996204717749</v>
+        <v>0.6889341458437094</v>
       </c>
       <c r="N7" t="n">
-        <v>70.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
         <v>88</v>
       </c>
       <c r="P7" t="n">
-        <v>75.33333333333333</v>
+        <v>31.33333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -820,7 +820,7 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -829,40 +829,40 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6063252961259654</v>
+        <v>0.2824564686939742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.803885726009816</v>
+        <v>0.625593529830118</v>
       </c>
       <c r="G8" t="n">
-        <v>1.850744304761899</v>
+        <v>-0.6629210634218339</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017897918905362</v>
+        <v>0.02436217837536485</v>
       </c>
       <c r="I8" t="n">
-        <v>-17.4119887520876</v>
+        <v>-16.53293626690316</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3952957926282059</v>
+        <v>0.1870744773738428</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5301969126311857</v>
+        <v>0.1707283141740148</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6613423997528308</v>
+        <v>0.2534639562621423</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4568337958460779</v>
+        <v>0.5718241113255302</v>
       </c>
       <c r="N8" t="n">
-        <v>71.66666666666667</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="O8" t="n">
         <v>88</v>
       </c>
       <c r="P8" t="n">
-        <v>74.33333333333333</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -879,40 +879,40 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6917365532947192</v>
+        <v>0.5899539515011948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.886204767505654</v>
+        <v>0.8909003634268507</v>
       </c>
       <c r="G9" t="n">
-        <v>1.889622688388215</v>
+        <v>-0.5571807592785186</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9209239626979032</v>
+        <v>-0.08852577564158537</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.6003215690341</v>
+        <v>-11.86776720594207</v>
       </c>
       <c r="J9" t="n">
-        <v>0.392955398808549</v>
+        <v>0.2177269501744129</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5358875039109673</v>
+        <v>0.1408465808920706</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6645521328977061</v>
+        <v>0.259315442911516</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5861315383159624</v>
+        <v>0.8523238036250543</v>
       </c>
       <c r="N9" t="n">
-        <v>68.33333333333333</v>
+        <v>39.33333333333334</v>
       </c>
       <c r="O9" t="n">
         <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>70.33333333333333</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -920,7 +920,7 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -929,40 +929,40 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3963782010421037</v>
+        <v>0.4444019383214392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7884333549372892</v>
+        <v>0.8075114698053744</v>
       </c>
       <c r="G10" t="n">
-        <v>1.842717441517531</v>
+        <v>-0.306019748393832</v>
       </c>
       <c r="H10" t="n">
-        <v>1.159238152095005</v>
+        <v>-0.08257814533946355</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.39018978816064</v>
+        <v>-6.508810549657327</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2369372002342175</v>
+        <v>0.181647227784122</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2794041792138999</v>
+        <v>0.1728941037818794</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3663617312209571</v>
+        <v>0.2510727880610719</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6980157476537231</v>
+        <v>0.7660630827981065</v>
       </c>
       <c r="N10" t="n">
-        <v>56.66666666666666</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="O10" t="n">
         <v>88</v>
       </c>
       <c r="P10" t="n">
-        <v>59.33333333333334</v>
+        <v>45.33333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -970,7 +970,7 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -979,40 +979,40 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>1.322817063457068</v>
+        <v>0.7493452595655556</v>
       </c>
       <c r="F11" t="n">
-        <v>2.266643707238913</v>
+        <v>1.35120851975521</v>
       </c>
       <c r="G11" t="n">
-        <v>1.910957208370159</v>
+        <v>-0.0192968491009348</v>
       </c>
       <c r="H11" t="n">
-        <v>1.101072208701548</v>
+        <v>-0.06943015748692005</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.120366485750563</v>
+        <v>-2.878625909836067</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2450752168079094</v>
+        <v>0.1233280022239968</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2921931638328564</v>
+        <v>0.2604737695205396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3814537321974497</v>
+        <v>0.2883298265189352</v>
       </c>
       <c r="M11" t="n">
-        <v>2.234108369631362</v>
+        <v>1.319945843331809</v>
       </c>
       <c r="N11" t="n">
-        <v>64.33333333333333</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="O11" t="n">
         <v>88</v>
       </c>
       <c r="P11" t="n">
-        <v>66.66666666666667</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -1020,7 +1020,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1029,40 +1029,40 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8089445199452889</v>
+        <v>1.483902688995645</v>
       </c>
       <c r="F12" t="n">
-        <v>1.205682148504568</v>
+        <v>2.366313940484188</v>
       </c>
       <c r="G12" t="n">
-        <v>1.883557721960604</v>
+        <v>0.04875349135774817</v>
       </c>
       <c r="H12" t="n">
-        <v>1.201939146935047</v>
+        <v>0.01874297725758349</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.259865328160976</v>
+        <v>1.252033690828044</v>
       </c>
       <c r="J12" t="n">
-        <v>0.241783060585875</v>
+        <v>0.2046707274397411</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2545289666304991</v>
+        <v>0.2876930870400687</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3511128142917916</v>
+        <v>0.3555134531078776</v>
       </c>
       <c r="M12" t="n">
-        <v>1.153408840471833</v>
+        <v>2.338580768544403</v>
       </c>
       <c r="N12" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O12" t="n">
         <v>88</v>
       </c>
       <c r="P12" t="n">
-        <v>65.33333333333333</v>
+        <v>51.33333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -1070,7 +1070,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="B13" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.39184025331643</v>
+        <v>0.5403664381169067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8180625239302789</v>
+        <v>1.067438104209703</v>
       </c>
       <c r="G13" t="n">
-        <v>1.730470854945433</v>
+        <v>-0.2207384296187721</v>
       </c>
       <c r="H13" t="n">
-        <v>1.136088300740312</v>
+        <v>0.04653143297895213</v>
       </c>
       <c r="I13" t="n">
-        <v>2.826428186389425</v>
+        <v>6.759522374278562</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2610140211117388</v>
+        <v>0.1132979205080667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2549490549177348</v>
+        <v>0.3066635194865068</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3650106007194279</v>
+        <v>0.3274732051680278</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7320450692088679</v>
+        <v>1.015891231915736</v>
       </c>
       <c r="N13" t="n">
-        <v>14.33333333333333</v>
+        <v>36</v>
       </c>
       <c r="O13" t="n">
         <v>88</v>
       </c>
       <c r="P13" t="n">
-        <v>14.66666666666667</v>
+        <v>40.33333333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2450417839964397</v>
+        <v>0.3993387272233147</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5000225601888548</v>
+        <v>0.9317999815996775</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84939444067832</v>
+        <v>-0.2832180190445494</v>
       </c>
       <c r="H14" t="n">
-        <v>1.136300983925651</v>
+        <v>-0.04479620896764421</v>
       </c>
       <c r="I14" t="n">
-        <v>11.12022238781148</v>
+        <v>11.8848781717613</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1457780174250685</v>
+        <v>0.23602806432936</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1636211628577264</v>
+        <v>0.2132488036119105</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2198107302944913</v>
+        <v>0.3181410975936225</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4490366897747414</v>
+        <v>0.8756728818991301</v>
       </c>
       <c r="N14" t="n">
-        <v>8.666666666666666</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="O14" t="n">
         <v>88</v>
       </c>
       <c r="P14" t="n">
-        <v>8.666666666666666</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1170,7 +1170,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1179,340 +1179,390 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1924986508235442</v>
+        <v>0.3724737804045832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6271801257816301</v>
+        <v>0.8956562699392071</v>
       </c>
       <c r="G15" t="n">
-        <v>1.674383013190474</v>
+        <v>-0.2818992671608005</v>
       </c>
       <c r="H15" t="n">
-        <v>1.161275417521097</v>
+        <v>-0.06910500491947384</v>
       </c>
       <c r="I15" t="n">
-        <v>14.08683393831042</v>
+        <v>15.9889711234853</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2077981770823839</v>
+        <v>0.3147080405867478</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2427130593419427</v>
+        <v>0.2822706555313076</v>
       </c>
       <c r="L15" t="n">
-        <v>0.320062664094053</v>
+        <v>0.4227547269354821</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5366117739765545</v>
+        <v>0.7895982872829395</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="O15" t="n">
         <v>88</v>
       </c>
       <c r="P15" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2784317538634598</v>
+        <v>0.4011301823390616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5723361604136601</v>
+        <v>0.9829797113779866</v>
       </c>
       <c r="G16" t="n">
-        <v>1.72499161240457</v>
+        <v>-0.2678920334187562</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8807872088217058</v>
+        <v>-0.1379213376788281</v>
       </c>
       <c r="I16" t="n">
-        <v>25.95548815895205</v>
+        <v>20.75133554137313</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1666427808797528</v>
+        <v>0.4088996295068248</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3781030117675395</v>
+        <v>0.4154389040582728</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4153722339313009</v>
+        <v>0.5829288226889677</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3838740140860196</v>
+        <v>0.7914473205923792</v>
       </c>
       <c r="N16" t="n">
-        <v>8.666666666666666</v>
+        <v>43</v>
       </c>
       <c r="O16" t="n">
         <v>88</v>
       </c>
       <c r="P16" t="n">
-        <v>8.666666666666666</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4499515320758162</v>
+        <v>0.4396193207847097</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8844739298153113</v>
+        <v>1.011222489679833</v>
       </c>
       <c r="G17" t="n">
-        <v>1.436744277164318</v>
+        <v>-0.3522807173622103</v>
       </c>
       <c r="H17" t="n">
-        <v>1.14156411998808</v>
+        <v>-0.08920665774462577</v>
       </c>
       <c r="I17" t="n">
-        <v>30.70338093787022</v>
+        <v>26.11734446442371</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2751633105537772</v>
+        <v>0.3993808417787271</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4069775723691525</v>
+        <v>0.3633692442945755</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4926374827051676</v>
+        <v>0.5403925434469213</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7344260358157774</v>
+        <v>0.8546555096266384</v>
       </c>
       <c r="N17" t="n">
-        <v>44.33333333333334</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="O17" t="n">
         <v>88</v>
       </c>
       <c r="P17" t="n">
-        <v>45</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6344388897809929</v>
+        <v>0.4441880085264891</v>
       </c>
       <c r="F18" t="n">
-        <v>1.234765806089098</v>
+        <v>1.102979747912421</v>
       </c>
       <c r="G18" t="n">
-        <v>1.474257883701777</v>
+        <v>-0.3787789953221174</v>
       </c>
       <c r="H18" t="n">
-        <v>1.047405272167093</v>
+        <v>-0.107311311277139</v>
       </c>
       <c r="I18" t="n">
-        <v>35.92258794862312</v>
+        <v>31.10350277082193</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4522585330190566</v>
+        <v>0.3971066760658277</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6070606690802217</v>
+        <v>0.4172324026343812</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7593187190598579</v>
+        <v>0.5761094004956279</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9720572124026133</v>
+        <v>0.940265794493242</v>
       </c>
       <c r="N18" t="n">
-        <v>44.66666666666666</v>
+        <v>35</v>
       </c>
       <c r="O18" t="n">
         <v>88</v>
       </c>
       <c r="P18" t="n">
-        <v>48.33333333333334</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8001997821724259</v>
+        <v>0.4737141109818476</v>
       </c>
       <c r="F19" t="n">
-        <v>1.363129454278538</v>
+        <v>1.237396567922333</v>
       </c>
       <c r="G19" t="n">
-        <v>1.525016109207381</v>
+        <v>-0.363371721660845</v>
       </c>
       <c r="H19" t="n">
-        <v>1.152888567237691</v>
+        <v>-0.1536239338832009</v>
       </c>
       <c r="I19" t="n">
-        <v>40.55083073199745</v>
+        <v>36.32606797768997</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4560898643303616</v>
+        <v>0.4448148844202677</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6296943653681278</v>
+        <v>0.4963393552300772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7778350797785425</v>
+        <v>0.667069674127832</v>
       </c>
       <c r="M19" t="n">
-        <v>1.119077108702969</v>
+        <v>1.042180951059255</v>
       </c>
       <c r="N19" t="n">
-        <v>44.33333333333334</v>
+        <v>33</v>
       </c>
       <c r="O19" t="n">
         <v>88</v>
       </c>
       <c r="P19" t="n">
-        <v>48.33333333333334</v>
+        <v>33.66666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7709497307205327</v>
+        <v>0.3988656219697678</v>
       </c>
       <c r="F20" t="n">
-        <v>1.447853593653357</v>
+        <v>1.180868375525583</v>
       </c>
       <c r="G20" t="n">
-        <v>1.370185205452875</v>
+        <v>-0.3750558210886652</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8970273572299637</v>
+        <v>0.002318861763740188</v>
       </c>
       <c r="I20" t="n">
-        <v>44.5448288517666</v>
+        <v>40.84319157078446</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4477728417581866</v>
+        <v>0.5099852578263904</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9854494605902744</v>
+        <v>0.4799784723252443</v>
       </c>
       <c r="L20" t="n">
-        <v>1.083522383603911</v>
+        <v>0.7004834273704779</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9534221035214673</v>
+        <v>0.9500601752559822</v>
       </c>
       <c r="N20" t="n">
-        <v>41</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="O20" t="n">
         <v>88</v>
       </c>
       <c r="P20" t="n">
-        <v>46.66666666666666</v>
+        <v>20.33333333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>46.90000000000001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>46.90000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4218629725508125</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.171033839711273</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3689982207267803</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3466712487551717</v>
+      </c>
+      <c r="I21" t="n">
+        <v>45.77606474181619</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3270660388091668</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.621072350540413</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7036612812818653</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9324583904618335</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14</v>
+      </c>
+      <c r="O21" t="n">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>51.90000000000001</v>
       </c>
-      <c r="B21" t="n">
-        <v>70</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>51.90000000000001</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.6574851838701418</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.341773213798693</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9637074775274262</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.175915940909647</v>
-      </c>
-      <c r="I21" t="n">
-        <v>49.42888239004471</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6456852044427772</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.8862288205096002</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.097218541752533</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.139174251336749</v>
-      </c>
-      <c r="N21" t="n">
-        <v>42</v>
-      </c>
-      <c r="O21" t="n">
-        <v>88</v>
-      </c>
-      <c r="P21" t="n">
-        <v>44.66666666666666</v>
+      <c r="E22" t="n">
+        <v>0.5080713241712654</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.266323543742687</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2032689509112894</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.2241334311762557</v>
+      </c>
+      <c r="I22" t="n">
+        <v>51.47758471545299</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4092665789008236</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5677353430414284</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7026422036224673</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.044094595051108</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3765162687486398</v>
+        <v>0.376516265598672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9639882773081311</v>
+        <v>0.9639882764269899</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.013814236462982</v>
+        <v>-1.0138142383117</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09657739433551644</v>
+        <v>0.09657738854914062</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.79477914110888</v>
+        <v>-46.79479656744703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4919088533166652</v>
+        <v>0.4919088556968759</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6509344494719037</v>
+        <v>0.6509344511573197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8164183691988339</v>
+        <v>0.816418372024537</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5075457154213229</v>
+        <v>0.5075457094264109</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5086681684336458</v>
+        <v>0.5086681684491593</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17898103882712</v>
+        <v>1.178981038823283</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9137877716889117</v>
+        <v>-0.9137877715659215</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0854077922755702</v>
+        <v>-0.08540779215574427</v>
       </c>
       <c r="I3" t="n">
-        <v>-41.88092312603934</v>
+        <v>-41.88092302254962</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4784796035330214</v>
+        <v>0.4784796035048556</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7201195506605829</v>
+        <v>0.7201195506382639</v>
       </c>
       <c r="L3" t="n">
-        <v>0.865449793645824</v>
+        <v>0.865449793611741</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7907656552231628</v>
+        <v>0.7907656552590762</v>
       </c>
       <c r="N3" t="n">
         <v>16.66666666666667</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5748429471300222</v>
+        <v>0.574842947592982</v>
       </c>
       <c r="F4" t="n">
-        <v>1.096453238970163</v>
+        <v>1.096453239121509</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.016969932951137</v>
+        <v>-1.016969928640511</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08450418417028989</v>
+        <v>0.08450418718770909</v>
       </c>
       <c r="I4" t="n">
-        <v>-36.38893211542419</v>
+        <v>-36.38892972471828</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4758653344771313</v>
+        <v>0.4758653342238122</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7114782660826808</v>
+        <v>0.7114782657960662</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8561331086027687</v>
+        <v>0.8561331082254938</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6846166894945803</v>
+        <v>0.684616690191147</v>
       </c>
       <c r="N4" t="n">
         <v>22</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7342192908639088</v>
+        <v>0.7342192908632272</v>
       </c>
       <c r="F5" t="n">
-        <v>1.19593690661032</v>
+        <v>1.195936906610228</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9901820971652455</v>
+        <v>-0.9901820971766332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04845666909595062</v>
+        <v>0.04845666908787886</v>
       </c>
       <c r="I5" t="n">
-        <v>-31.27160618159386</v>
+        <v>-31.27160618571775</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4533179042364157</v>
+        <v>0.4533179042371393</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5893865149518142</v>
+        <v>0.5893865149525869</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7438975518128919</v>
+        <v>0.74389755181394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9336687970587217</v>
+        <v>0.933668797057796</v>
       </c>
       <c r="N5" t="n">
         <v>31</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6033360981650971</v>
+        <v>0.6033360981652366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9539236378180739</v>
+        <v>0.9539236378181681</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7410351506481637</v>
+        <v>-0.7410351506432372</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1108324378324331</v>
+        <v>-0.1108324378281888</v>
       </c>
       <c r="I6" t="n">
-        <v>-26.85332796719212</v>
+        <v>-26.85332796540449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4373260523508342</v>
+        <v>0.4373260523508852</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5245789168408884</v>
+        <v>0.5245789168406734</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6835008760068301</v>
+        <v>0.6835008760066973</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6651799696263085</v>
+        <v>0.6651799696265998</v>
       </c>
       <c r="N6" t="n">
         <v>34</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5711550977826142</v>
+        <v>0.571155097753147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9031485293127789</v>
+        <v>0.9031485292817841</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6526817889804116</v>
+        <v>-0.6526817885495385</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1378324735330617</v>
+        <v>-0.1378324731400274</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.40577978257373</v>
+        <v>-21.4057796177953</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2912098791552615</v>
+        <v>0.291209879166248</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5061207523445301</v>
+        <v>0.5061207523400406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5839639770252883</v>
+        <v>0.5839639770270526</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6889341458437094</v>
+        <v>0.6889341458015962</v>
       </c>
       <c r="N7" t="n">
         <v>31</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2824564686939742</v>
+        <v>0.2824564686939289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.625593529830118</v>
+        <v>0.6255935298298145</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6629210634218339</v>
+        <v>-0.6629210634280677</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02436217837536485</v>
+        <v>0.0243621783671415</v>
       </c>
       <c r="I8" t="n">
-        <v>-16.53293626690316</v>
+        <v>-16.53293626908561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1870744773738428</v>
+        <v>0.1870744773733259</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1707283141740148</v>
+        <v>0.1707283141741683</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2534639562621423</v>
+        <v>0.2534639562618601</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5718241113255302</v>
+        <v>0.5718241113253235</v>
       </c>
       <c r="N8" t="n">
         <v>36.33333333333334</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5899539515011948</v>
+        <v>0.589953951514283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8909003634268507</v>
+        <v>0.8909003635258763</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5571807592785186</v>
+        <v>-0.5571807579176872</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.08852577564158537</v>
+        <v>-0.08852577418290745</v>
       </c>
       <c r="I9" t="n">
-        <v>-11.86776720594207</v>
+        <v>-11.86776684596983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2177269501744129</v>
+        <v>0.2177269504046788</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1408465808920706</v>
+        <v>0.1408465809522941</v>
       </c>
       <c r="L9" t="n">
-        <v>0.259315442911516</v>
+        <v>0.2593154431375302</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8523238036250543</v>
+        <v>0.852323803659829</v>
       </c>
       <c r="N9" t="n">
         <v>39.33333333333334</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4444019383214392</v>
+        <v>0.4444019382564042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8075114698053744</v>
+        <v>0.8075114699716842</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.306019748393832</v>
+        <v>-0.3060197457951593</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.08257814533946355</v>
+        <v>-0.08257813867080206</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.508810549657327</v>
+        <v>-6.508809484407745</v>
       </c>
       <c r="J10" t="n">
-        <v>0.181647227784122</v>
+        <v>0.1816472277545365</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1728941037818794</v>
+        <v>0.1728941043200941</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2510727880610719</v>
+        <v>0.2510727884008035</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7660630827981065</v>
+        <v>0.7660630828612813</v>
       </c>
       <c r="N10" t="n">
         <v>43.33333333333334</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7493452595655556</v>
+        <v>0.7493452595663118</v>
       </c>
       <c r="F11" t="n">
-        <v>1.35120851975521</v>
+        <v>1.351208519755602</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0192968491009348</v>
+        <v>-0.01929684910900657</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.06943015748692005</v>
+        <v>-0.06943015751219643</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.878625909836067</v>
+        <v>-2.87862591377363</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1233280022239968</v>
+        <v>0.1233280022233539</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2604737695205396</v>
+        <v>0.2604737695210956</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2883298265189352</v>
+        <v>0.2883298265191709</v>
       </c>
       <c r="M11" t="n">
-        <v>1.319945843331809</v>
+        <v>1.319945843332157</v>
       </c>
       <c r="N11" t="n">
         <v>36.66666666666666</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>1.483902688995645</v>
+        <v>1.483902688999944</v>
       </c>
       <c r="F12" t="n">
-        <v>2.366313940484188</v>
+        <v>2.366313940481896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04875349135774817</v>
+        <v>0.04875349146986233</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01874297725758349</v>
+        <v>0.01874297716627401</v>
       </c>
       <c r="I12" t="n">
-        <v>1.252033690828044</v>
+        <v>1.252033489465258</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2046707274397411</v>
+        <v>0.2046707274390879</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2876930870400687</v>
+        <v>0.2876930870450178</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3555134531078776</v>
+        <v>0.3555134531119663</v>
       </c>
       <c r="M12" t="n">
-        <v>2.338580768544403</v>
+        <v>2.338580768541551</v>
       </c>
       <c r="N12" t="n">
         <v>49</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5403664381169067</v>
+        <v>0.5403664383533845</v>
       </c>
       <c r="F13" t="n">
-        <v>1.067438104209703</v>
+        <v>1.067438104480166</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2207384296187721</v>
+        <v>-0.2207384294152538</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04653143297895213</v>
+        <v>0.04653143476679134</v>
       </c>
       <c r="I13" t="n">
-        <v>6.759522374278562</v>
+        <v>6.759523394075177</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1132979205080667</v>
+        <v>0.1132979203370548</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3066635194865068</v>
+        <v>0.3066635198038614</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3274732051680278</v>
+        <v>0.3274732054117078</v>
       </c>
       <c r="M13" t="n">
-        <v>1.015891231915736</v>
+        <v>1.015891232121486</v>
       </c>
       <c r="N13" t="n">
         <v>36</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3993387272233147</v>
+        <v>0.3993387272231685</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9317999815996775</v>
+        <v>0.9317999815997878</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2832180190445494</v>
+        <v>-0.2832180190450989</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.04479620896764421</v>
+        <v>-0.04479620896385465</v>
       </c>
       <c r="I14" t="n">
-        <v>11.8848781717613</v>
+        <v>11.88487817322308</v>
       </c>
       <c r="J14" t="n">
-        <v>0.23602806432936</v>
+        <v>0.2360280643286359</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2132488036119105</v>
+        <v>0.2132488036129271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3181410975936225</v>
+        <v>0.3181410975937664</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8756728818991301</v>
+        <v>0.8756728818991771</v>
       </c>
       <c r="N14" t="n">
         <v>37.66666666666666</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3724737804045832</v>
+        <v>0.3724737812439008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8956562699392071</v>
+        <v>0.8956562716246098</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2818992671608005</v>
+        <v>-0.281899245388369</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.06910500491947384</v>
+        <v>-0.06910504081230329</v>
       </c>
       <c r="I15" t="n">
-        <v>15.9889711234853</v>
+        <v>15.98895365153756</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3147080405867478</v>
+        <v>0.3147080555257137</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2822706555313076</v>
+        <v>0.2822706419666392</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4227547269354821</v>
+        <v>0.4227547290058886</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7895982872829395</v>
+        <v>0.7895982880860707</v>
       </c>
       <c r="N15" t="n">
         <v>40.33333333333334</v>
@@ -1229,31 +1229,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4011301823390616</v>
+        <v>0.4011301820663527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9829797113779866</v>
+        <v>0.9829797115382126</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2678920334187562</v>
+        <v>-0.2678920308346733</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1379213376788281</v>
+        <v>-0.1379213398395981</v>
       </c>
       <c r="I16" t="n">
-        <v>20.75133554137313</v>
+        <v>20.75133425924067</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4088996295068248</v>
+        <v>0.4088996307244256</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4154389040582728</v>
+        <v>0.415438903371699</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5829288226889677</v>
+        <v>0.5829288230538926</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7914473205923792</v>
+        <v>0.7914473205222997</v>
       </c>
       <c r="N16" t="n">
         <v>43</v>
@@ -1279,31 +1279,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4396193207847097</v>
+        <v>0.439619320785194</v>
       </c>
       <c r="F17" t="n">
-        <v>1.011222489679833</v>
+        <v>1.011222489679907</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3522807173622103</v>
+        <v>-0.3522807173662083</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.08920665774462577</v>
+        <v>-0.08920665774229519</v>
       </c>
       <c r="I17" t="n">
-        <v>26.11734446442371</v>
+        <v>26.11734446647397</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3993808417787271</v>
+        <v>0.3993808417770688</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3633692442945755</v>
+        <v>0.3633692442956202</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5403925434469213</v>
+        <v>0.5403925434463961</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8546555096266384</v>
+        <v>0.8546555096269756</v>
       </c>
       <c r="N17" t="n">
         <v>36.66666666666666</v>
@@ -1329,31 +1329,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4441880085264891</v>
+        <v>0.444188008526533</v>
       </c>
       <c r="F18" t="n">
-        <v>1.102979747912421</v>
+        <v>1.102979747912173</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3787789953221174</v>
+        <v>-0.3787789953260775</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.107311311277139</v>
+        <v>-0.1073113112728947</v>
       </c>
       <c r="I18" t="n">
-        <v>31.10350277082193</v>
+        <v>31.10350277310223</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3971066760658277</v>
+        <v>0.3971066760638629</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4172324026343812</v>
+        <v>0.4172324026361023</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5761094004956279</v>
+        <v>0.5761094004955182</v>
       </c>
       <c r="M18" t="n">
-        <v>0.940265794493242</v>
+        <v>0.9402657944930505</v>
       </c>
       <c r="N18" t="n">
         <v>35</v>
@@ -1379,31 +1379,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4737141109818476</v>
+        <v>0.4737141109627338</v>
       </c>
       <c r="F19" t="n">
-        <v>1.237396567922333</v>
+        <v>1.23739656776042</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.363371721660845</v>
+        <v>-0.3633717255780387</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1536239338832009</v>
+        <v>-0.1536239276211025</v>
       </c>
       <c r="I19" t="n">
-        <v>36.32606797768997</v>
+        <v>36.32607028363585</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4448148844202677</v>
+        <v>0.4448148825743267</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4963393552300772</v>
+        <v>0.4963393570820016</v>
       </c>
       <c r="L19" t="n">
-        <v>0.667069674127832</v>
+        <v>0.6670696742937693</v>
       </c>
       <c r="M19" t="n">
-        <v>1.042180951059255</v>
+        <v>1.042180950762127</v>
       </c>
       <c r="N19" t="n">
         <v>33</v>
@@ -1429,31 +1429,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3988656219697678</v>
+        <v>0.3988656219687424</v>
       </c>
       <c r="F20" t="n">
-        <v>1.180868375525583</v>
+        <v>1.180868375521052</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3750558210886652</v>
+        <v>-0.3750558211300283</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002318861763740188</v>
+        <v>0.002318861794151417</v>
       </c>
       <c r="I20" t="n">
-        <v>40.84319157078446</v>
+        <v>40.84319158725981</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5099852578263904</v>
+        <v>0.5099852578138289</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4799784723252443</v>
+        <v>0.4799784723314269</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7004834273704779</v>
+        <v>0.7004834273655881</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9500601752559822</v>
+        <v>0.9500601752539332</v>
       </c>
       <c r="N20" t="n">
         <v>19.66666666666667</v>
@@ -1479,31 +1479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4218629725508125</v>
+        <v>0.4218629709055932</v>
       </c>
       <c r="F21" t="n">
-        <v>1.171033839711273</v>
+        <v>1.17103383767864</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3689982207267803</v>
+        <v>-0.3689981898898698</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3466712487551717</v>
+        <v>-0.3466712449354835</v>
       </c>
       <c r="I21" t="n">
-        <v>45.77606474181619</v>
+        <v>45.77604883139055</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3270660388091668</v>
+        <v>0.3270660430732184</v>
       </c>
       <c r="K21" t="n">
-        <v>0.621072350540413</v>
+        <v>0.6210723497550832</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7036612812818653</v>
+        <v>0.7036612824131604</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9324583904618335</v>
+        <v>0.9324583872469638</v>
       </c>
       <c r="N21" t="n">
         <v>14</v>
@@ -1529,31 +1529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5080713241712654</v>
+        <v>0.5080713239861301</v>
       </c>
       <c r="F22" t="n">
-        <v>1.266323543742687</v>
+        <v>1.266323543418039</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2032689509112894</v>
+        <v>-0.2032689497574059</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2241334311762557</v>
+        <v>-0.2241334314268594</v>
       </c>
       <c r="I22" t="n">
-        <v>51.47758471545299</v>
+        <v>51.47758388800554</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4092665789008236</v>
+        <v>0.4092665789569399</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5677353430414284</v>
+        <v>0.5677353429467762</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7026422036224673</v>
+        <v>0.7026422035589751</v>
       </c>
       <c r="M22" t="n">
-        <v>1.044094595051108</v>
+        <v>1.044094594720668</v>
       </c>
       <c r="N22" t="n">
         <v>12.33333333333333</v>

--- a/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/dfdz_icp_gdpt.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.376516265598672</v>
+        <v>0.3765162655979717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9639882764269899</v>
+        <v>0.9639882764267854</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.0138142383117</v>
+        <v>-1.013814238312269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09657738854914062</v>
+        <v>0.09657738854764375</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.79479656744703</v>
+        <v>-46.79479657119266</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4919088556968759</v>
+        <v>0.4919088556974158</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6509344511573197</v>
+        <v>0.6509344511577021</v>
       </c>
       <c r="L2" t="n">
-        <v>0.816418372024537</v>
+        <v>0.8164183720251782</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5075457094264109</v>
+        <v>0.507545709425123</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -579,31 +579,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5086681684491593</v>
+        <v>0.5086681685064424</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178981038823283</v>
+        <v>1.178981038808975</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9137877715659215</v>
+        <v>-0.9137877711114774</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.08540779215574427</v>
+        <v>-0.08540779171333195</v>
       </c>
       <c r="I3" t="n">
-        <v>-41.88092302254962</v>
+        <v>-41.88092264032782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4784796035048556</v>
+        <v>0.478479603400735</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7201195506382639</v>
+        <v>0.7201195505558565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.865449793611741</v>
+        <v>0.8654497934858298</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7907656552590762</v>
+        <v>0.7907656553917558</v>
       </c>
       <c r="N3" t="n">
         <v>16.66666666666667</v>
@@ -629,31 +629,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.574842947592982</v>
+        <v>0.5748429476816649</v>
       </c>
       <c r="F4" t="n">
-        <v>1.096453239121509</v>
+        <v>1.096453239150763</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.016969928640511</v>
+        <v>-1.016969927819086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08450418718770909</v>
+        <v>0.08450418776520034</v>
       </c>
       <c r="I4" t="n">
-        <v>-36.38892972471828</v>
+        <v>-36.38892926838297</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4758653342238122</v>
+        <v>0.4758653341756696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7114782657960662</v>
+        <v>0.711478265741106</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8561331082254938</v>
+        <v>0.8561331081533886</v>
       </c>
       <c r="M4" t="n">
-        <v>0.684616690191147</v>
+        <v>0.6846166903247685</v>
       </c>
       <c r="N4" t="n">
         <v>22</v>
@@ -679,31 +679,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7342192908632272</v>
+        <v>0.7342192913666148</v>
       </c>
       <c r="F5" t="n">
-        <v>1.195936906610228</v>
+        <v>1.195936906671885</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9901820971766332</v>
+        <v>-0.9901820884304205</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04845666908787886</v>
+        <v>0.04845667523361877</v>
       </c>
       <c r="I5" t="n">
-        <v>-31.27160618571775</v>
+        <v>-31.27160303372368</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4533179042371393</v>
+        <v>0.4533179036812534</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5893865149525869</v>
+        <v>0.5893865143647982</v>
       </c>
       <c r="L5" t="n">
-        <v>0.74389755181394</v>
+        <v>0.7438975510131892</v>
       </c>
       <c r="M5" t="n">
-        <v>0.933668797057796</v>
+        <v>0.9336687977627699</v>
       </c>
       <c r="N5" t="n">
         <v>31</v>
@@ -729,31 +729,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6033360981652366</v>
+        <v>0.6033360990076531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9539236378181681</v>
+        <v>0.9539236383849959</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7410351506432372</v>
+        <v>-0.7410351244028371</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1108324378281888</v>
+        <v>-0.1108324146708621</v>
       </c>
       <c r="I6" t="n">
-        <v>-26.85332796540449</v>
+        <v>-26.85331834518977</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4373260523508852</v>
+        <v>0.4373260525241364</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5245789168406734</v>
+        <v>0.5245789157223372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6835008760066973</v>
+        <v>0.6835008752545848</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6651799696265998</v>
+        <v>0.6651799712011831</v>
       </c>
       <c r="N6" t="n">
         <v>34</v>
@@ -779,31 +779,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.571155097753147</v>
+        <v>0.5711550977723746</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9031485292817841</v>
+        <v>0.9031485293020087</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6526817885495385</v>
+        <v>-0.6526817888286777</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1378324731400274</v>
+        <v>-0.1378324733952354</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.4057796177953</v>
+        <v>-21.40577972462135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.291209879166248</v>
+        <v>0.2912098791591647</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5061207523400406</v>
+        <v>0.5061207523429301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5839639770270526</v>
+        <v>0.5839639770259103</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6889341458015962</v>
+        <v>0.6889341458290454</v>
       </c>
       <c r="N7" t="n">
         <v>31</v>
@@ -829,31 +829,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2824564686939289</v>
+        <v>0.2824564686938711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6255935298298145</v>
+        <v>0.6255935298291869</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6629210634280677</v>
+        <v>-0.6629210634407438</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0243621783671415</v>
+        <v>0.02436217835080849</v>
       </c>
       <c r="I8" t="n">
-        <v>-16.53293626908561</v>
+        <v>-16.53293627342811</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1870744773733259</v>
+        <v>0.1870744773722264</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1707283141741683</v>
+        <v>0.170728314174481</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2534639562618601</v>
+        <v>0.253463956261253</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5718241113253235</v>
+        <v>0.5718241113249091</v>
       </c>
       <c r="N8" t="n">
         <v>36.33333333333334</v>
@@ -879,31 +879,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.589953951514283</v>
+        <v>0.58995395151681</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8909003635258763</v>
+        <v>0.8909003635450684</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5571807579176872</v>
+        <v>-0.5571807576537253</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.08852577418290745</v>
+        <v>-0.08852577389935352</v>
       </c>
       <c r="I9" t="n">
-        <v>-11.86776684596983</v>
+        <v>-11.86776677603024</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2177269504046788</v>
+        <v>0.217726950449246</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1408465809522941</v>
+        <v>0.1408465809640382</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2593154431375302</v>
+        <v>0.2593154431813223</v>
       </c>
       <c r="M9" t="n">
-        <v>0.852323803659829</v>
+        <v>0.8523238036665736</v>
       </c>
       <c r="N9" t="n">
         <v>39.33333333333334</v>
@@ -929,31 +929,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4444019382564042</v>
+        <v>0.4444019383222091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8075114699716842</v>
+        <v>0.8075114698034244</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3060197457951593</v>
+        <v>-0.3060197484242432</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.08257813867080206</v>
+        <v>-0.08257814541775588</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.508809484407745</v>
+        <v>-6.508810562191468</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1816472277545365</v>
+        <v>0.1816472277845192</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1728941043200941</v>
+        <v>0.1728941037755825</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2510727884008035</v>
+        <v>0.2510727880571362</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7660630828612813</v>
+        <v>0.7660630827973635</v>
       </c>
       <c r="N10" t="n">
         <v>43.33333333333334</v>
@@ -979,31 +979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7493452595663118</v>
+        <v>0.7493452595655173</v>
       </c>
       <c r="F11" t="n">
-        <v>1.351208519755602</v>
+        <v>1.351208519755196</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01929684910900657</v>
+        <v>-0.01929684910048006</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.06943015751219643</v>
+        <v>-0.06943015748561265</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.87862591377363</v>
+        <v>-2.87862590964883</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1233280022233539</v>
+        <v>0.1233280022240345</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2604737695210956</v>
+        <v>0.260473769520505</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2883298265191709</v>
+        <v>0.2883298265189198</v>
       </c>
       <c r="M11" t="n">
-        <v>1.319945843332157</v>
+        <v>1.319945843331795</v>
       </c>
       <c r="N11" t="n">
         <v>36.66666666666666</v>
@@ -1029,31 +1029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E12" t="n">
-        <v>1.483902688999944</v>
+        <v>1.483902689001766</v>
       </c>
       <c r="F12" t="n">
-        <v>2.366313940481896</v>
+        <v>2.366313940480936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04875349146986233</v>
+        <v>0.04875349151704237</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01874297716627401</v>
+        <v>0.0187429771278668</v>
       </c>
       <c r="I12" t="n">
-        <v>1.252033489465258</v>
+        <v>1.252033405075061</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2046707274390879</v>
+        <v>0.2046707274388692</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2876930870450178</v>
+        <v>0.2876930870470639</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3555134531119663</v>
+        <v>0.3555134531137077</v>
       </c>
       <c r="M12" t="n">
-        <v>2.338580768541551</v>
+        <v>2.33858076854035</v>
       </c>
       <c r="N12" t="n">
         <v>49</v>
@@ -1079,31 +1079,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5403664383533845</v>
+        <v>0.5403664381167212</v>
       </c>
       <c r="F13" t="n">
-        <v>1.067438104480166</v>
+        <v>1.06743810420946</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2207384294152538</v>
+        <v>-0.2207384296190753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04653143476679134</v>
+        <v>0.0465314329774363</v>
       </c>
       <c r="I13" t="n">
-        <v>6.759523394075177</v>
+        <v>6.759522373444629</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1132979203370548</v>
+        <v>0.1132979205081983</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3066635198038614</v>
+        <v>0.3066635194862352</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3274732054117078</v>
+        <v>0.3274732051678125</v>
       </c>
       <c r="M13" t="n">
-        <v>1.015891232121486</v>
+        <v>1.015891231915568</v>
       </c>
       <c r="N13" t="n">
         <v>36</v>
@@ -1129,31 +1129,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3993387272231685</v>
+        <v>0.3993387270564796</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9317999815997878</v>
+        <v>0.9317999817290431</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2832180190450989</v>
+        <v>-0.283218019820102</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.04479620896385465</v>
+        <v>-0.04479620382310637</v>
       </c>
       <c r="I14" t="n">
-        <v>11.88487817322308</v>
+        <v>11.88488010131027</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2360280643286359</v>
+        <v>0.2360280633529902</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2132488036129271</v>
+        <v>0.2132488050003877</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3181410975937664</v>
+        <v>0.3181410978003839</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8756728818991771</v>
+        <v>0.8756728819610372</v>
       </c>
       <c r="N14" t="n">
         <v>37.66666666666666</v>
@@ -1179,31 +1179,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3724737812439008</v>
+        <v>0.3724737812437684</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8956562716246098</v>
+        <v>0.8956562716243913</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.281899245388369</v>
+        <v>-0.2818992453915333</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.06910504081230329</v>
+        <v>-0.06910504080701685</v>
       </c>
       <c r="I15" t="n">
-        <v>15.98895365153756</v>
+        <v>15.98895365414525</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3147080555257137</v>
+        <v>0.3147080555235093</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2822706419666392</v>
+        <v>0.282270641968634</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4227547290058886</v>
+        <v>0.4227547290055786</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7895982880860707</v>
+        <v>0.789598288085951</v>
       </c>
       <c r="N15" t="n">
         <v>40.33333333333334</v>
@@ -1229,31 +1229,31 @@
         <v>21.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4011301820663527</v>
+        <v>0.4011301822454527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9829797115382126</v>
+        <v>0.9829797114335935</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2678920308346733</v>
+        <v>-0.2678920325299714</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1379213398395981</v>
+        <v>-0.1379213384222643</v>
       </c>
       <c r="I16" t="n">
-        <v>20.75133425924067</v>
+        <v>20.75133510022725</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4088996307244256</v>
+        <v>0.4088996299262097</v>
       </c>
       <c r="K16" t="n">
-        <v>0.415438903371699</v>
+        <v>0.41543890382242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5829288230538926</v>
+        <v>0.582928822815108</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7914473205222997</v>
+        <v>0.7914473205683707</v>
       </c>
       <c r="N16" t="n">
         <v>43</v>
@@ -1279,31 +1279,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.439619320785194</v>
+        <v>0.4396193207842228</v>
       </c>
       <c r="F17" t="n">
-        <v>1.011222489679907</v>
+        <v>1.01122248967976</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3522807173662083</v>
+        <v>-0.3522807173582692</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.08920665774229519</v>
+        <v>-0.08920665774724057</v>
       </c>
       <c r="I17" t="n">
-        <v>26.11734446647397</v>
+        <v>26.11734446232337</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3993808417770688</v>
+        <v>0.3993808417803701</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3633692442956202</v>
+        <v>0.3633692442933532</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5403925434463961</v>
+        <v>0.5403925434473159</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8546555096269756</v>
+        <v>0.8546555096262908</v>
       </c>
       <c r="N17" t="n">
         <v>36.66666666666666</v>
@@ -1329,31 +1329,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.444188008526533</v>
+        <v>0.4441880086538042</v>
       </c>
       <c r="F18" t="n">
-        <v>1.102979747912173</v>
+        <v>1.102979747060854</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3787789953260775</v>
+        <v>-0.3787790069751509</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1073113112728947</v>
+        <v>-0.1073112996247308</v>
       </c>
       <c r="I18" t="n">
-        <v>31.10350277310223</v>
+        <v>31.10350940041858</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3971066760638629</v>
+        <v>0.3971066701248782</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4172324026361023</v>
+        <v>0.4172324073155015</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5761094004955182</v>
+        <v>0.5761093997881317</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9402657944930505</v>
+        <v>0.9402657939263261</v>
       </c>
       <c r="N18" t="n">
         <v>35</v>
@@ -1379,31 +1379,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4737141109627338</v>
+        <v>0.4737141111079824</v>
       </c>
       <c r="F19" t="n">
-        <v>1.23739656776042</v>
+        <v>1.237396569142526</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3633717255780387</v>
+        <v>-0.3633716935984808</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1536239276211025</v>
+        <v>-0.1536239787686213</v>
       </c>
       <c r="I19" t="n">
-        <v>36.32607028363585</v>
+        <v>36.32605143425194</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4448148825743267</v>
+        <v>0.4448148977281199</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4963393570820016</v>
+        <v>0.4963393420210295</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6670696742937693</v>
+        <v>0.6670696730380449</v>
       </c>
       <c r="M19" t="n">
-        <v>1.042180950762127</v>
+        <v>1.042180953195399</v>
       </c>
       <c r="N19" t="n">
         <v>33</v>
@@ -1429,31 +1429,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3988656219687424</v>
+        <v>0.3988656219688383</v>
       </c>
       <c r="F20" t="n">
-        <v>1.180868375521052</v>
+        <v>1.180868375521467</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3750558211300283</v>
+        <v>-0.3750558211259924</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002318861794151417</v>
+        <v>0.002318861790911342</v>
       </c>
       <c r="I20" t="n">
-        <v>40.84319158725981</v>
+        <v>40.84319158570164</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5099852578138289</v>
+        <v>0.5099852578149666</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4799784723314269</v>
+        <v>0.4799784723307448</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7004834273655881</v>
+        <v>0.7004834273659478</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9500601752539332</v>
+        <v>0.9500601752541299</v>
       </c>
       <c r="N20" t="n">
         <v>19.66666666666667</v>
@@ -1479,31 +1479,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4218629709055932</v>
+        <v>0.4218629722497358</v>
       </c>
       <c r="F21" t="n">
-        <v>1.17103383767864</v>
+        <v>1.171033839337966</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3689981898898698</v>
+        <v>-0.368998215082551</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3466712449354835</v>
+        <v>-0.3466712480523029</v>
       </c>
       <c r="I21" t="n">
-        <v>45.77604883139055</v>
+        <v>45.77606182728584</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3270660430732184</v>
+        <v>0.3270660395880811</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6210723497550832</v>
+        <v>0.6210723503960113</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7036612824131604</v>
+        <v>0.7036612814876594</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9324583872469638</v>
+        <v>0.9324583898729552</v>
       </c>
       <c r="N21" t="n">
         <v>14</v>
@@ -1529,31 +1529,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5080713239861301</v>
+        <v>0.5080713239820122</v>
       </c>
       <c r="F22" t="n">
-        <v>1.266323543418039</v>
+        <v>1.26632354341086</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2032689497574059</v>
+        <v>-0.2032689497317127</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2241334314268594</v>
+        <v>-0.2241334314323732</v>
       </c>
       <c r="I22" t="n">
-        <v>51.47758388800554</v>
+        <v>51.47758386961209</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4092665789569399</v>
+        <v>0.4092665789581746</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5677353429467762</v>
+        <v>0.567735342944702</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7026422035589751</v>
+        <v>0.7026422035575822</v>
       </c>
       <c r="M22" t="n">
-        <v>1.044094594720668</v>
+        <v>1.044094594713321</v>
       </c>
       <c r="N22" t="n">
         <v>12.33333333333333</v>
